--- a/supp_data/pcawg_negative_sig_sig_survivals_nonepi.xlsx
+++ b/supp_data/pcawg_negative_sig_sig_survivals_nonepi.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Panc_AdenoCA__SBS40+ROS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Liver_HCC__SBS40+SBS29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Panc_AdenoCA__ROS+SBS40" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Liver_HCC__SBS29+SBS40" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Panc_AdenoCA__SBS40+ROS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Liver_HCC__SBS40+SBS29" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+Ageing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">Model 1</t>
@@ -49,16 +51,16 @@
     <t xml:space="preserve">log(total_muts + 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
     <t xml:space="preserve">statusAPOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+APOBEC</t>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">Model log-likelihoods</t>
@@ -82,16 +84,139 @@
     <t xml:space="preserve">p-value of interaction in this model: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">CNS_GBM__SBS40+SBS5</t>
+    <t xml:space="preserve">Skin_Melanoma__UV+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-218.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.7786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.0658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Both models fit equally well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.575,   p = 0.449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical likelihood ratio test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.575,   p = 0.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   p = 0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   p = 0.4212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   two-sided p = 0.8424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.976,   p = 0.309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.976,   p = 0.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.530786363765658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_GBM__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
   </si>
   <si>
     <t xml:space="preserve">statusSBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40+SBS5</t>
+    <t xml:space="preserve">statusCL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-78.09222</t>
@@ -100,7 +225,7 @@
     <t xml:space="preserve">-74.64116</t>
   </si>
   <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Eso_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-172.9890</t>
@@ -109,7 +234,7 @@
     <t xml:space="preserve">-172.7647</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymph_CLL__SBS40+SBS5</t>
+    <t xml:space="preserve">Lymph_CLL__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-134.7144</t>
@@ -118,7 +243,7 @@
     <t xml:space="preserve">-124.7541</t>
   </si>
   <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Ovary_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.0140</t>
@@ -127,7 +252,7 @@
     <t xml:space="preserve">-333.9548</t>
   </si>
   <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-766.4800</t>
@@ -136,108 +261,42 @@
     <t xml:space="preserve">-764.1494</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-218.7649</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-216.9176</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.1548</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variance test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fine: p = 0.488</t>
   </si>
   <si>
-    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Both models fit equally well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
-  </si>
-  <si>
     <t xml:space="preserve">    LR = 0.474,   p = 0.498</t>
   </si>
   <si>
-    <t xml:space="preserve">Classical likelihood ratio test</t>
-  </si>
-  <si>
     <t xml:space="preserve">    LR = 0.474,   p = 0.491</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.3566</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fine: p = 0.541</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.168,   p = 0.567</t>
   </si>
   <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.168,   p = 0.4334</t>
   </si>
   <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.168,   two-sided p = 0.8669</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.5302</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fine: p = 0.375</t>
   </si>
   <si>
@@ -247,13 +306,10 @@
     <t xml:space="preserve">    LR = 0.751,   p = 0.386</t>
   </si>
   <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.288874517867539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">p-value of interaction in this model: 0.288874517867542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-15.10441</t>
@@ -262,346 +318,475 @@
     <t xml:space="preserve">-13.65623</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS5</t>
+    <t xml:space="preserve">Eso_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-169.7384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.17861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.13278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.3157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.9422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.253,   p = 0.0994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.253,   p = 0.0713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.5103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.389,   p = 0.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.389,   p = 0.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.9664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.912,   p = 0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.912,   p = 0.0879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.537387455116664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.13424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.80169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.60912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.615,   p = 0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.615,   p = 0.0573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.50381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.404,   p = 0.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.404,   p = 0.236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.61859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.230,   p = 0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.230,   p = 0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.539414962034916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-334.1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-759.1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-760.7122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.026,   p = 0.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.026,   p = 0.082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-759.9462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.494,   p = 0.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.494,   p = 0.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-761.4301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.968,   p = 0.0901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.968,   p = 0.0849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0031438049978792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.91025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.57642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.58395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.015,   p = 0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.015,   p = 0.902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.88256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   p = 0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   p = 0.1741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   two-sided p = 0.3482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.90772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.648,   p = 0.0679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.648,   p = 0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998885736449144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS39+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS39+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.56232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS29+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.6947</t>
   </si>
   <si>
-    <t xml:space="preserve">-339.9167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.19122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.42273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__Ageing+SBS5</t>
+    <t xml:space="preserve">-337.6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.7143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.146,   p = 0.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.146,   p = 0.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.9715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   p = 0.603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   p = 0.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   two-sided p = 0.7941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.554,   p = 0.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.554,   p = 0.457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.00759136962040104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.21631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.82102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.209,   p = 0.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.209,   p = 0.00725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.75788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.083,   p = 0.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.083,   p = 0.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.75874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.002,   p = 0.00294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.002,   p = 0.00156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998717721100864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS5+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.37856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__MMR+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.579251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.482651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__PolE+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.250003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS40+SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__ROS+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__ROS+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS1+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.646689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS1+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-33.50507</t>
   </si>
   <si>
-    <t xml:space="preserve">-31.58797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-169.7384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.17861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.13278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.3157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.9422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.253,   p = 0.0994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.253,   p = 0.0713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.5103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.389,   p = 0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.389,   p = 0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.9664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.912,   p = 0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.912,   p = 0.0879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.537387455116664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__SBS5+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.37856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.13424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.80169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-54.60912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.615,   p = 0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.615,   p = 0.0573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.50381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.404,   p = 0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.404,   p = 0.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-54.61859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.230,   p = 0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.230,   p = 0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.539414962034916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.1103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-759.1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-760.7122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.026,   p = 0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.026,   p = 0.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-759.9462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.494,   p = 0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.494,   p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-761.4301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.968,   p = 0.0901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.968,   p = 0.0849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0031438049978792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.91025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.57642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.58395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.015,   p = 0.923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.015,   p = 0.902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.88256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   p = 0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   p = 0.1741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   two-sided p = 0.3482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.90772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.648,   p = 0.0679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.648,   p = 0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998885736449144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS39+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-55.56232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__ROS+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.579251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.482651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__ROS+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.250003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.646689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__Ageing+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+Tobacco</t>
-  </si>
-  <si>
     <t xml:space="preserve">-30.47376</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS12</t>
+    <t xml:space="preserve">Liver_HCC__SBS29+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS12</t>
   </si>
   <si>
     <t xml:space="preserve">statusSBS12</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+SBS12</t>
+    <t xml:space="preserve">statusCL SBS1+SBS12</t>
   </si>
   <si>
     <t xml:space="preserve">-338.8921</t>
@@ -652,61 +837,10 @@
     <t xml:space="preserve">Liver_HCC__SBS40+SBS29</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.6410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.7143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.146,   p = 0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.146,   p = 0.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.9715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   p = 0.603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   p = 0.397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   two-sided p = 0.7941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.9913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.554,   p = 0.499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.554,   p = 0.457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00759136962040103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS29</t>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS29</t>
   </si>
   <si>
     <t xml:space="preserve">-339.7885</t>
@@ -757,199 +891,91 @@
     <t xml:space="preserve">Liver_HCC__Tobacco+SBS29</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS29+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2055</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS40+SBS34</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.21631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.82102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.209,   p = 0.0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.209,   p = 0.00725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.75788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.083,   p = 0.318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.083,   p = 0.298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.75874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.002,   p = 0.00294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.002,   p = 0.00156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998717721100864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_CLL__Ageing+PolH</t>
+    <t xml:space="preserve">Lymph_CLL__CL SBS1+PolH</t>
   </si>
   <si>
     <t xml:space="preserve">statusPolH</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+PolH</t>
+    <t xml:space="preserve">statusCL SBS1+PolH</t>
   </si>
   <si>
     <t xml:space="preserve">-117.6912</t>
   </si>
   <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.8985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.2973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.798,   p = 0.344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.798,   p = 0.372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.8716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   p = 0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   p = 0.3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   two-sided p = 0.7556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.2784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.962,   p = 0.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.962,   p = 0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.457183374960975</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.7786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.0658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.575,   p = 0.449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.575,   p = 0.448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   p = 0.579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   p = 0.4212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   two-sided p = 0.8424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.976,   p = 0.309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.976,   p = 0.323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.530786363765658</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__SBS40+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS40+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.0472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+UV</t>
   </si>
   <si>
     <t xml:space="preserve">-217.1256</t>
   </si>
   <si>
     <t xml:space="preserve">Skin_Melanoma__SBS38+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.8985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.2973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.798,   p = 0.344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.798,   p = 0.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.8716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   p = 0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   p = 0.3778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   two-sided p = 0.7556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.2784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.962,   p = 0.159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.962,   p = 0.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.457183374960975</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1322,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -1371,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>0.515466872239474</v>
@@ -1386,12 +1412,12 @@
         <v>2.14530616212816</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0319283761403124</v>
+        <v>0.0319283761403125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
         <v>0.242584536639363</v>
@@ -1411,7 +1437,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B10" t="n">
         <v>1.40672773918893</v>
@@ -1444,20 +1470,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -1502,7 +1528,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B40" t="n">
         <v>0.540359665256216</v>
@@ -1522,7 +1548,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B41" t="n">
         <v>0.248565196155268</v>
@@ -1542,7 +1568,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B42" t="n">
         <v>1.25807884740519</v>
@@ -1575,15 +1601,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1593,72 +1619,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -1703,7 +1729,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B73" t="n">
         <v>0.552673666095967</v>
@@ -1723,7 +1749,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B74" t="n">
         <v>0.270950782608007</v>
@@ -1743,7 +1769,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B75" t="n">
         <v>1.38193737621051</v>
@@ -1776,15 +1802,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -1794,72 +1820,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">
@@ -1884,7 +1910,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B105" t="n">
         <v>0.579717458839702</v>
@@ -1904,7 +1930,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B106" t="n">
         <v>0.278826511409022</v>
@@ -1924,7 +1950,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B107" t="n">
         <v>1.23155143252502</v>
@@ -1957,15 +1983,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
@@ -1975,72 +2001,72 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2085,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -2134,7 +2160,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B8" t="n">
         <v>-0.142489687771666</v>
@@ -2154,7 +2180,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
         <v>0.261391848055468</v>
@@ -2174,7 +2200,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B10" t="n">
         <v>1.98869100641453</v>
@@ -2207,20 +2233,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -2265,7 +2291,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B40" t="n">
         <v>-0.141168750527201</v>
@@ -2285,7 +2311,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B41" t="n">
         <v>0.262565288861878</v>
@@ -2305,7 +2331,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B42" t="n">
         <v>1.98967081268364</v>
@@ -2338,15 +2364,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -2356,72 +2382,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -2466,7 +2492,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B73" t="n">
         <v>-0.160174915190403</v>
@@ -2486,7 +2512,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B74" t="n">
         <v>0.257191825689398</v>
@@ -2506,7 +2532,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B75" t="n">
         <v>1.9567268988808</v>
@@ -2539,15 +2565,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
@@ -2557,72 +2583,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">
@@ -2647,7 +2673,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B105" t="n">
         <v>-0.158556850405157</v>
@@ -2667,7 +2693,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B106" t="n">
         <v>0.257949815962578</v>
@@ -2687,7 +2713,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B107" t="n">
         <v>1.95897409169865</v>
@@ -2702,7 +2728,7 @@
         <v>2.66972365735477</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00759136962040103</v>
+        <v>0.00759136962040104</v>
       </c>
     </row>
     <row r="111">
@@ -2720,15 +2746,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
@@ -2738,72 +2764,1598 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0137425207235279</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.01383738321325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00794943992024446</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.72874074921058</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0838555047636248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.182606466062582</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.833095942761803</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.152677771405425</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.19602522608012</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.231686715052671</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.515466872239474</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.67442005958255</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.240276600766451</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.14530616212816</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0319283761403125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.242584536639363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.27453898985227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.234425359107394</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.03480501240581</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.300759981611007</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.40672773918893</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.08257427493087</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.468582954357578</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.00208901349717</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00268133759480551</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.174907134164973</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.839534981266288</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.148970257548532</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1.17410775173018</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.240351868947366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.540359665256216</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.71662416123647</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.240156056287931</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.25003555441617</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0244466884307824</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.248565196155268</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.28218441313846</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.234595818782463</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.05954657438187</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.289350930018665</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.25807884740519</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.5186551164238</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.460891827554962</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.72966186898847</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00633993158930454</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0135427087766</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.01363482662913</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0079051285883264</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.71315477354774</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0866840694858643</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.552673666095967</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.73789335829315</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.239510892619729</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.30750952514484</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0210264318493159</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.270950782608007</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.3112105344336</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.233905304563414</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.15837810140192</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.246709771687736</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.38193737621051</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.98260997191748</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.46792744920474</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.95331547349737</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0031438049978792</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.579717458839702</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.78553387266208</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.238992306108992</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.42567414942356</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0152799827382861</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.278826511409022</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.32157804526683</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.233864097348127</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.19225872876915</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.233159811839163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.23155143252502</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.42654146254996</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.459743062395425</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.67878198337176</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00738904868597443</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.00488815359011484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.995123773990117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0127387972051171</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.38372175264328</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.701184688325336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.196266642964118</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.21685132692473</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.244294879378479</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.803400560271456</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.421743251307602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.142489687771666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.867196496974433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.263824949017977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.540091785489008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.589133735422368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.261391848055468</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.29873647310108</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.415053402618127</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.629778834257537</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.528839295527065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.98869100641453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.30596404025926</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.735432445967609</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.70411105373249</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00684873957365713</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.174406317311478</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.19053920424706</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.236930338816147</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.736107997747025</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.461664975950369</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.141168750527201</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.868342766033627</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.26378463457264</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.535166692919434</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.592534595622553</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.262565288861878</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.30026135798149</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.415012197386604</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.632668848085169</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.52694991699509</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.98967081268364</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.31312597771043</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.735280641274585</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.70600190049151</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00680986562427333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.0024225482744978</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.997580383727457</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0121635810860215</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.199164066681136</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.84213440693359</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.160174915190403</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.851994749108161</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.262541770831539</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.610093070840068</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.541800156459126</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.257191825689398</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.29329318982389</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.415055612890741</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.619656300749994</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.535484091605547</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.9567268988808</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.07612823656117</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.733927312643563</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.66610448360722</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00767358400441233</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.158556850405157</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.853374447728764</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.262416572071906</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.604218129797498</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.545698628931078</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.257949815962578</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.29427386510636</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.415018178630674</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.621538595763846</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.53424530823576</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.95897409169865</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.09204754128697</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.733774106657787</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.66972365735477</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00759136962040104</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
